--- a/katia/Folha de Pagamento-com-funcao.xlsx
+++ b/katia/Folha de Pagamento-com-funcao.xlsx
@@ -357,14 +357,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -683,7 +683,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,25 +695,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>998</v>
       </c>
       <c r="D3" t="s">
@@ -764,14 +764,14 @@
         <v>2</v>
       </c>
       <c r="C6" t="str">
-        <f>IF(AND(B6&gt;=1,B6&lt;=15),VLOOKUP(B6,TABELACARGO,2,),"CARGO INEXISTENTE")</f>
+        <f t="shared" ref="C6:C23" si="0">IF(AND(B6&gt;=1,B6&lt;=15),VLOOKUP(B6,TABELACARGO,2,),"CARGO INEXISTENTE")</f>
         <v>Auxiliar de Contabilidade</v>
       </c>
       <c r="D6">
-        <f>IF(AND($B6&gt;=1,$B6&lt;=15),VLOOKUP($B6,TABELACARGO,3)," ")</f>
+        <f t="shared" ref="D6:D23" si="1">IF(AND($B6&gt;=1,$B6&lt;=15),VLOOKUP($B6,TABELACARGO,3)," ")</f>
         <v>6</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <f>IFERROR(B$3*D6," ")</f>
         <v>5988</v>
       </c>
@@ -785,15 +785,15 @@
         <v>2</v>
       </c>
       <c r="C7" t="str">
-        <f>IF(AND(B7&gt;=1,B7&lt;=15),VLOOKUP(B7,TABELACARGO,2,),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="0"/>
         <v>Auxiliar de Contabilidade</v>
       </c>
       <c r="D7">
-        <f>IF(AND($B7&gt;=1,$B7&lt;=15),VLOOKUP($B7,TABELACARGO,3)," ")</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E7" s="7">
-        <f t="shared" ref="E7:E23" si="0">IFERROR(B$3*D7," ")</f>
+      <c r="E7" s="5">
+        <f t="shared" ref="E7:E23" si="2">IFERROR(B$3*D7," ")</f>
         <v>5988</v>
       </c>
     </row>
@@ -806,15 +806,15 @@
         <v>3</v>
       </c>
       <c r="C8" t="str">
-        <f>IF(AND(B8&gt;=1,B8&lt;=15),VLOOKUP(B8,TABELACARGO,2,),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="0"/>
         <v>Chefe de Cobrança</v>
       </c>
       <c r="D8">
-        <f>IF(AND($B8&gt;=1,$B8&lt;=15),VLOOKUP($B8,TABELACARGO,3)," ")</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E8" s="7">
-        <f t="shared" si="0"/>
+      <c r="E8" s="5">
+        <f t="shared" si="2"/>
         <v>6986</v>
       </c>
     </row>
@@ -827,15 +827,15 @@
         <v>4</v>
       </c>
       <c r="C9" t="str">
-        <f>IF(AND(B9&gt;=1,B9&lt;=15),VLOOKUP(B9,TABELACARGO,2,),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="0"/>
         <v>Chefe de Expedição</v>
       </c>
       <c r="D9">
-        <f>IF(AND($B9&gt;=1,$B9&lt;=15),VLOOKUP($B9,TABELACARGO,3)," ")</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E9" s="7">
-        <f t="shared" si="0"/>
+      <c r="E9" s="5">
+        <f t="shared" si="2"/>
         <v>6986</v>
       </c>
     </row>
@@ -848,15 +848,15 @@
         <v>5</v>
       </c>
       <c r="C10" t="str">
-        <f>IF(AND(B10&gt;=1,B10&lt;=15),VLOOKUP(B10,TABELACARGO,2,),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="0"/>
         <v>Contador</v>
       </c>
       <c r="D10">
-        <f>IF(AND($B10&gt;=1,$B10&lt;=15),VLOOKUP($B10,TABELACARGO,3)," ")</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="E10" s="7">
-        <f t="shared" si="0"/>
+      <c r="E10" s="5">
+        <f t="shared" si="2"/>
         <v>12974</v>
       </c>
     </row>
@@ -869,15 +869,15 @@
         <v>6</v>
       </c>
       <c r="C11" t="str">
-        <f>IF(AND(B11&gt;=1,B11&lt;=15),VLOOKUP(B11,TABELACARGO,2,),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="0"/>
         <v>Diretor de Divisão</v>
       </c>
       <c r="D11">
-        <f>IF(AND($B11&gt;=1,$B11&lt;=15),VLOOKUP($B11,TABELACARGO,3)," ")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E11" s="7">
-        <f t="shared" si="0"/>
+      <c r="E11" s="5">
+        <f t="shared" si="2"/>
         <v>19960</v>
       </c>
     </row>
@@ -890,15 +890,15 @@
         <v>5</v>
       </c>
       <c r="C12" t="str">
-        <f>IF(AND(B12&gt;=1,B12&lt;=15),VLOOKUP(B12,TABELACARGO,2,),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="0"/>
         <v>Contador</v>
       </c>
       <c r="D12">
-        <f>IF(AND($B12&gt;=1,$B12&lt;=15),VLOOKUP($B12,TABELACARGO,3)," ")</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="E12" s="7">
-        <f t="shared" si="0"/>
+      <c r="E12" s="5">
+        <f t="shared" si="2"/>
         <v>12974</v>
       </c>
     </row>
@@ -911,15 +911,15 @@
         <v>6</v>
       </c>
       <c r="C13" t="str">
-        <f>IF(AND(B13&gt;=1,B13&lt;=15),VLOOKUP(B13,TABELACARGO,2,),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="0"/>
         <v>Diretor de Divisão</v>
       </c>
       <c r="D13">
-        <f>IF(AND($B13&gt;=1,$B13&lt;=15),VLOOKUP($B13,TABELACARGO,3)," ")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E13" s="7">
-        <f t="shared" si="0"/>
+      <c r="E13" s="5">
+        <f t="shared" si="2"/>
         <v>19960</v>
       </c>
     </row>
@@ -932,15 +932,15 @@
         <v>2</v>
       </c>
       <c r="C14" t="str">
-        <f>IF(AND(B14&gt;=1,B14&lt;=15),VLOOKUP(B14,TABELACARGO,2,),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="0"/>
         <v>Auxiliar de Contabilidade</v>
       </c>
       <c r="D14">
-        <f>IF(AND($B14&gt;=1,$B14&lt;=15),VLOOKUP($B14,TABELACARGO,3)," ")</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E14" s="7">
-        <f t="shared" si="0"/>
+      <c r="E14" s="5">
+        <f t="shared" si="2"/>
         <v>5988</v>
       </c>
     </row>
@@ -953,15 +953,15 @@
         <v>3</v>
       </c>
       <c r="C15" t="str">
-        <f>IF(AND(B15&gt;=1,B15&lt;=15),VLOOKUP(B15,TABELACARGO,2,),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="0"/>
         <v>Chefe de Cobrança</v>
       </c>
       <c r="D15">
-        <f>IF(AND($B15&gt;=1,$B15&lt;=15),VLOOKUP($B15,TABELACARGO,3)," ")</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E15" s="7">
-        <f t="shared" si="0"/>
+      <c r="E15" s="5">
+        <f t="shared" si="2"/>
         <v>6986</v>
       </c>
     </row>
@@ -974,15 +974,15 @@
         <v>4</v>
       </c>
       <c r="C16" t="str">
-        <f>IF(AND(B16&gt;=1,B16&lt;=15),VLOOKUP(B16,TABELACARGO,2,),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="0"/>
         <v>Chefe de Expedição</v>
       </c>
       <c r="D16">
-        <f>IF(AND($B16&gt;=1,$B16&lt;=15),VLOOKUP($B16,TABELACARGO,3)," ")</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E16" s="7">
-        <f t="shared" si="0"/>
+      <c r="E16" s="5">
+        <f t="shared" si="2"/>
         <v>6986</v>
       </c>
     </row>
@@ -995,15 +995,15 @@
         <v>5</v>
       </c>
       <c r="C17" t="str">
-        <f>IF(AND(B17&gt;=1,B17&lt;=15),VLOOKUP(B17,TABELACARGO,2,),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="0"/>
         <v>Contador</v>
       </c>
       <c r="D17">
-        <f>IF(AND($B17&gt;=1,$B17&lt;=15),VLOOKUP($B17,TABELACARGO,3)," ")</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="E17" s="7">
-        <f t="shared" si="0"/>
+      <c r="E17" s="5">
+        <f t="shared" si="2"/>
         <v>12974</v>
       </c>
     </row>
@@ -1016,15 +1016,15 @@
         <v>1</v>
       </c>
       <c r="C18" t="str">
-        <f>IF(AND(B18&gt;=1,B18&lt;=15),VLOOKUP(B18,TABELACARGO,2,),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="0"/>
         <v>Análista de Salários</v>
       </c>
       <c r="D18">
-        <f>IF(AND($B18&gt;=1,$B18&lt;=15),VLOOKUP($B18,TABELACARGO,3)," ")</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E18" s="7">
-        <f t="shared" si="0"/>
+      <c r="E18" s="5">
+        <f t="shared" si="2"/>
         <v>9980</v>
       </c>
     </row>
@@ -1037,15 +1037,15 @@
         <v>2</v>
       </c>
       <c r="C19" t="str">
-        <f>IF(AND(B19&gt;=1,B19&lt;=15),VLOOKUP(B19,TABELACARGO,2,),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="0"/>
         <v>Auxiliar de Contabilidade</v>
       </c>
       <c r="D19">
-        <f>IF(AND($B19&gt;=1,$B19&lt;=15),VLOOKUP($B19,TABELACARGO,3)," ")</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E19" s="7">
-        <f t="shared" si="0"/>
+      <c r="E19" s="5">
+        <f t="shared" si="2"/>
         <v>5988</v>
       </c>
     </row>
@@ -1058,15 +1058,15 @@
         <v>3</v>
       </c>
       <c r="C20" t="str">
-        <f>IF(AND(B20&gt;=1,B20&lt;=15),VLOOKUP(B20,TABELACARGO,2,),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="0"/>
         <v>Chefe de Cobrança</v>
       </c>
       <c r="D20">
-        <f>IF(AND($B20&gt;=1,$B20&lt;=15),VLOOKUP($B20,TABELACARGO,3)," ")</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E20" s="7">
-        <f t="shared" si="0"/>
+      <c r="E20" s="5">
+        <f t="shared" si="2"/>
         <v>6986</v>
       </c>
     </row>
@@ -1079,15 +1079,15 @@
         <v>7</v>
       </c>
       <c r="C21" t="str">
-        <f>IF(AND(B21&gt;=1,B21&lt;=15),VLOOKUP(B21,TABELACARGO,2,),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="0"/>
         <v>Auxiliar de Escritório</v>
       </c>
       <c r="D21">
-        <f>IF(AND($B21&gt;=1,$B21&lt;=15),VLOOKUP($B21,TABELACARGO,3)," ")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E21" s="7">
-        <f t="shared" si="0"/>
+      <c r="E21" s="5">
+        <f t="shared" si="2"/>
         <v>3992</v>
       </c>
     </row>
@@ -1100,15 +1100,15 @@
         <v>16</v>
       </c>
       <c r="C22" t="str">
-        <f>IF(AND(B22&gt;=1,B22&lt;=15),VLOOKUP(B22,TABELACARGO,2,),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="0"/>
         <v>CARGO INEXISTENTE</v>
       </c>
       <c r="D22" t="str">
-        <f>IF(AND($B22&gt;=1,$B22&lt;=15),VLOOKUP($B22,TABELACARGO,3)," ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E22" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="E22" s="5" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1121,15 +1121,15 @@
         <v>0</v>
       </c>
       <c r="C23" t="str">
-        <f>IF(AND(B23&gt;=1,B23&lt;=15),VLOOKUP(B23,TABELACARGO,2,),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="0"/>
         <v>CARGO INEXISTENTE</v>
       </c>
       <c r="D23" t="str">
-        <f>IF(AND($B23&gt;=1,$B23&lt;=15),VLOOKUP($B23,TABELACARGO,3)," ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E23" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="E23" s="5" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,11 +1352,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
